--- a/要件ex-2_テスト/画像エビデンス_要件ex-2_「次へ」ボタンを「結果を見る」に変更_単体テスト仕様書.xlsx
+++ b/要件ex-2_テスト/画像エビデンス_要件ex-2_「次へ」ボタンを「結果を見る」に変更_単体テスト仕様書.xlsx
@@ -5,17 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B010163\Desktop\個人用ファイル\01. フォーマット\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B010163\Documents\quizsheet\要件ex-2_テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF17FD75-EDFF-4CF9-BDEB-FC5679F30ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85EE294-F3F3-410B-9DB0-FFF85437E00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{96769ED9-B6FC-4229-BEC5-ADA69A10894D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{96769ED9-B6FC-4229-BEC5-ADA69A10894D}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="No.1" sheetId="1" r:id="rId2"/>
+    <sheet name="No.2" sheetId="3" r:id="rId3"/>
+    <sheet name="No.3" sheetId="4" r:id="rId4"/>
+    <sheet name="No.4" sheetId="5" r:id="rId5"/>
+    <sheet name="No.5" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="a">表紙!$X$27</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -148,11 +155,352 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>画像エビデンス</t>
+    <t>QuizSheet
+画像エビデンス</t>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>QuizSheet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題出題画面</t>
+    <rPh sb="0" eb="6">
+      <t>モンダイシュツダイガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「結果を見る」ボタン</t>
+    <rPh sb="1" eb="3">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出題設定：</t>
+  </si>
+  <si>
+    <t>対象問題</t>
+  </si>
+  <si>
+    <t>Associate Reactive過去問</t>
+  </si>
+  <si>
+    <t>カテゴリー選択</t>
+  </si>
+  <si>
+    <t>全て選択</t>
+  </si>
+  <si>
+    <t>問題数</t>
+  </si>
+  <si>
+    <t>5問</t>
+  </si>
+  <si>
+    <t>出題順</t>
+  </si>
+  <si>
+    <t>ランダム</t>
+  </si>
+  <si>
+    <t>確認要件：</t>
     <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2問目が表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>モンメ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結果ページへは遷移しないこと</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この出題設定で1問目を回答し、「次へ」ボタンを押す</t>
+  </si>
+  <si>
+    <t>出題設定画面</t>
+    <rPh sb="0" eb="4">
+      <t>シュツダイセッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1問目</t>
+    <rPh sb="1" eb="3">
+      <t>モンメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1問目回答後</t>
+    <rPh sb="1" eb="3">
+      <t>モンメ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カイトウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1問目回答後、2問目の表示</t>
+    <rPh sb="1" eb="3">
+      <t>モンメ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カイトウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンメ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この出題設定で2問目を回答し、「次へ」ボタンを押す</t>
+  </si>
+  <si>
+    <t>3問目が表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>モンメ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結果ページへ遷移しないこと</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この設定で5問目まで進め、5問目を回答する</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モンメ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モンメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解説が表示されること</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタンのテキストが「次へ」ではなく、「結果を見る」に変わっていること</t>
+    <rPh sb="10" eb="11">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2問目回答後</t>
+    <rPh sb="1" eb="2">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2問目回答後、「次へ」ボタンを押した後</t>
+    <rPh sb="1" eb="6">
+      <t>モンメカイトウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出題設定画面</t>
+    <rPh sb="0" eb="6">
+      <t>シュツダイセッテイガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5問目(最終問題)</t>
+    <rPh sb="1" eb="3">
+      <t>モンメ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5問目回答後</t>
+    <rPh sb="1" eb="3">
+      <t>モンメ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5秒経過後</t>
+    <rPh sb="1" eb="4">
+      <t>ビョウケイカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この設定で5問目まで進め、5問目を回答し解説が表示されたことを確認</t>
+    <rPh sb="14" eb="16">
+      <t>モンメ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解説が表示後、5秒経過しても画面に変化が無いか確認する</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認要件：</t>
+    <rPh sb="0" eb="4">
+      <t>カクニンヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結果ページに正しく遷移するか確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.4の状態から「結果を見る」をクリックする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回答結果画面</t>
+    <rPh sb="0" eb="4">
+      <t>カイトウケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -162,7 +510,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +582,21 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -622,7 +985,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,6 +1049,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,83 +1163,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -817,6 +1186,1189 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>200659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B02CBB8-4F7E-F575-826B-BE954296014C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="2524125"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>200659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1510624-317C-7FCB-E2BC-6BEC23D43F27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="6867525"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>200659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62007BC2-7FD4-5470-7170-41D95EE85EC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="11210925"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>197484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A98D96-C229-C0E1-1A8B-C6B508154930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="16468725"/>
+          <a:ext cx="7772400" cy="4083684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>412749</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>222249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="四角形: 角を丸くする 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB73E0CA-14DE-4574-BB25-B8FAA51D3CB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105149" y="17706974"/>
+          <a:ext cx="3184525" cy="1498600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9007"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>197484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D7B9C9-DF16-D215-AAFF-E4703524DB09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="6858000"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>197484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5EC4DF6-1ABC-1AE7-255C-2AA93CF6F479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="11201400"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>200659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A31A81-2C8A-6672-2925-6E2D6B89FCA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="2743200"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形: 角を丸くする 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765133AC-77E8-4280-8F1E-F34629E79209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3095625" y="13154025"/>
+          <a:ext cx="3267075" cy="1692275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9007"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>197484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D515FE-B46F-CC81-CED7-6D52177B9D17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="2514600"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>197484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4899E8-916F-8308-053E-BB9C270F7BD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="6858000"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>200659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E10E317-33D9-6340-61FC-BFE589AD8C25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="11887200"/>
+          <a:ext cx="7772400" cy="4086859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>368301</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B10F5B-6107-4708-AB45-1BF413B1CB63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="14760575"/>
+          <a:ext cx="835026" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9007"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>469899</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形: 角を丸くする 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C83C7E-0641-468B-B27F-5AC60C741875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3108324" y="15125700"/>
+          <a:ext cx="3178175" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9007"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73DAB0F-1D03-49B4-BBC2-F1AC065201E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="2743200"/>
+          <a:ext cx="7772400" cy="4086859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>197484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A946E95-A82E-2263-B0E5-FA38BF5C7473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="6858000"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>200659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818962FA-FC2D-94EB-5B1C-787BEE26EE45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="11658600"/>
+          <a:ext cx="7769225" cy="4086859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B79B422-3BA2-48E0-A1F5-29F99A9E65FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3076575" y="14154150"/>
+          <a:ext cx="3181350" cy="1739900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9007"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>194309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B92361E7-AE8E-C38E-2A7F-AFA997B15167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="2514600"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>194309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E53F6AB-B817-880B-DBF4-4E1F3D756A06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="7086600"/>
+          <a:ext cx="7772400" cy="4080509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37D2786-D636-426B-8A5D-5705BA89267D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3121025" y="7791450"/>
+          <a:ext cx="3181350" cy="3400425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9007"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1138,9 +2690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7858F59A-6B92-4223-90AD-AB94470DB825}">
   <dimension ref="A1:AZ42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1227,32 +2777,32 @@
     </row>
     <row r="7" spans="1:52" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="O7" s="54" t="s">
+      <c r="O7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="56"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="35"/>
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
@@ -1270,30 +2820,30 @@
     </row>
     <row r="8" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="58"/>
-      <c r="AI8" s="58"/>
-      <c r="AJ8" s="58"/>
-      <c r="AK8" s="58"/>
-      <c r="AL8" s="59"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="38"/>
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
       <c r="AO8" s="8"/>
@@ -1322,30 +2872,30 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="58"/>
-      <c r="AL9" s="59"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="38"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
@@ -1372,30 +2922,30 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="59"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="38"/>
       <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
@@ -1422,30 +2972,30 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="59"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="38"/>
       <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
       <c r="AO11" s="8"/>
@@ -1475,30 +3025,30 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="59"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="38"/>
       <c r="AM12" s="8"/>
       <c r="AN12" s="8"/>
       <c r="AO12" s="8"/>
@@ -1525,30 +3075,30 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="59"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="38"/>
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
@@ -1575,30 +3125,30 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="59"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="38"/>
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
@@ -1616,30 +3166,30 @@
     </row>
     <row r="15" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="58"/>
-      <c r="AK15" s="58"/>
-      <c r="AL15" s="59"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="38"/>
       <c r="AM15" s="8"/>
       <c r="AN15" s="8"/>
       <c r="AO15" s="8"/>
@@ -1665,30 +3215,30 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
-      <c r="AG16" s="61"/>
-      <c r="AH16" s="61"/>
-      <c r="AI16" s="61"/>
-      <c r="AJ16" s="61"/>
-      <c r="AK16" s="61"/>
-      <c r="AL16" s="62"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="41"/>
       <c r="AM16" s="8"/>
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
@@ -1936,28 +3486,30 @@
     </row>
     <row r="22" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="Q22" s="63" t="s">
+      <c r="Q22" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="64"/>
-      <c r="AF22" s="64"/>
-      <c r="AG22" s="64"/>
-      <c r="AH22" s="64"/>
-      <c r="AI22" s="64"/>
-      <c r="AJ22" s="64"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
       <c r="AK22" s="13"/>
       <c r="AL22" s="13"/>
       <c r="AM22" s="13"/>
@@ -1977,28 +3529,30 @@
     </row>
     <row r="23" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="Q23" s="63" t="s">
+      <c r="Q23" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="64"/>
-      <c r="AF23" s="64"/>
-      <c r="AG23" s="64"/>
-      <c r="AH23" s="64"/>
-      <c r="AI23" s="64"/>
-      <c r="AJ23" s="64"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
       <c r="AK23" s="13"/>
       <c r="AL23" s="13"/>
       <c r="AM23" s="13"/>
@@ -2018,28 +3572,30 @@
     </row>
     <row r="24" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="Q24" s="63" t="s">
+      <c r="Q24" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="64"/>
-      <c r="AG24" s="64"/>
-      <c r="AH24" s="64"/>
-      <c r="AI24" s="64"/>
-      <c r="AJ24" s="64"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
       <c r="AZ24" s="7"/>
     </row>
     <row r="25" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2056,28 +3612,30 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
-      <c r="Q25" s="63" t="s">
+      <c r="Q25" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="65"/>
-      <c r="AG25" s="65"/>
-      <c r="AH25" s="65"/>
-      <c r="AI25" s="65"/>
-      <c r="AJ25" s="65"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
       <c r="AZ25" s="7"/>
     </row>
     <row r="26" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2088,28 +3646,30 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="63" t="s">
+      <c r="Q26" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="32">
+        <v>45960</v>
+      </c>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
       <c r="AZ26" s="7"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2231,16 +3791,16 @@
     </row>
     <row r="32" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
@@ -2271,34 +3831,34 @@
       <c r="AM32" s="10"/>
       <c r="AN32" s="10"/>
       <c r="AO32" s="10"/>
-      <c r="AP32" s="51" t="s">
+      <c r="AP32" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AQ32" s="52"/>
-      <c r="AR32" s="52"/>
-      <c r="AS32" s="52"/>
-      <c r="AT32" s="52"/>
-      <c r="AU32" s="52"/>
-      <c r="AV32" s="52"/>
-      <c r="AW32" s="53"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="44"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="44"/>
+      <c r="AU32" s="44"/>
+      <c r="AV32" s="44"/>
+      <c r="AW32" s="45"/>
       <c r="AX32" s="15"/>
       <c r="AY32" s="15"/>
       <c r="AZ32" s="18"/>
     </row>
     <row r="33" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50" t="s">
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -2329,36 +3889,36 @@
       <c r="AM33" s="10"/>
       <c r="AN33" s="10"/>
       <c r="AO33" s="10"/>
-      <c r="AP33" s="51" t="s">
+      <c r="AP33" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AQ33" s="52"/>
-      <c r="AR33" s="52"/>
-      <c r="AS33" s="53"/>
-      <c r="AT33" s="51" t="s">
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="44"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AU33" s="52"/>
-      <c r="AV33" s="52"/>
-      <c r="AW33" s="53"/>
+      <c r="AU33" s="44"/>
+      <c r="AV33" s="44"/>
+      <c r="AW33" s="45"/>
       <c r="AX33" s="19"/>
       <c r="AY33" s="19"/>
       <c r="AZ33" s="20"/>
     </row>
     <row r="34" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="41" t="s">
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="43"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="48"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="21"/>
@@ -2389,30 +3949,30 @@
       <c r="AM34" s="10"/>
       <c r="AN34" s="10"/>
       <c r="AO34" s="10"/>
-      <c r="AP34" s="41" t="s">
+      <c r="AP34" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AQ34" s="42"/>
-      <c r="AR34" s="42"/>
-      <c r="AS34" s="43"/>
-      <c r="AT34" s="41" t="s">
+      <c r="AQ34" s="47"/>
+      <c r="AR34" s="47"/>
+      <c r="AS34" s="48"/>
+      <c r="AT34" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AU34" s="42"/>
-      <c r="AV34" s="42"/>
-      <c r="AW34" s="43"/>
+      <c r="AU34" s="47"/>
+      <c r="AV34" s="47"/>
+      <c r="AW34" s="48"/>
       <c r="AZ34" s="7"/>
     </row>
     <row r="35" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54"/>
       <c r="N35" s="19"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -2441,30 +4001,30 @@
       <c r="AM35" s="10"/>
       <c r="AN35" s="19"/>
       <c r="AO35" s="19"/>
-      <c r="AP35" s="44"/>
-      <c r="AQ35" s="45"/>
-      <c r="AR35" s="45"/>
-      <c r="AS35" s="46"/>
-      <c r="AT35" s="47"/>
-      <c r="AU35" s="48"/>
-      <c r="AV35" s="48"/>
-      <c r="AW35" s="49"/>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="50"/>
+      <c r="AR35" s="50"/>
+      <c r="AS35" s="51"/>
+      <c r="AT35" s="52"/>
+      <c r="AU35" s="53"/>
+      <c r="AV35" s="53"/>
+      <c r="AW35" s="54"/>
       <c r="AZ35" s="7"/>
     </row>
     <row r="36" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="29" t="s">
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="31"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
       <c r="L36" s="22"/>
       <c r="N36" s="19"/>
       <c r="O36" s="10"/>
@@ -2494,30 +4054,30 @@
       <c r="AM36" s="10"/>
       <c r="AN36" s="19"/>
       <c r="AO36" s="19"/>
-      <c r="AP36" s="35" t="s">
+      <c r="AP36" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="AQ36" s="36"/>
-      <c r="AR36" s="36"/>
-      <c r="AS36" s="37"/>
-      <c r="AT36" s="35" t="s">
+      <c r="AQ36" s="62"/>
+      <c r="AR36" s="62"/>
+      <c r="AS36" s="63"/>
+      <c r="AT36" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="AU36" s="36"/>
-      <c r="AV36" s="36"/>
-      <c r="AW36" s="37"/>
+      <c r="AU36" s="62"/>
+      <c r="AV36" s="62"/>
+      <c r="AW36" s="63"/>
       <c r="AZ36" s="7"/>
     </row>
     <row r="37" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="34"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="60"/>
       <c r="L37" s="23"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -2547,14 +4107,14 @@
       <c r="AM37" s="10"/>
       <c r="AN37" s="10"/>
       <c r="AO37" s="10"/>
-      <c r="AP37" s="38"/>
-      <c r="AQ37" s="39"/>
-      <c r="AR37" s="39"/>
-      <c r="AS37" s="40"/>
-      <c r="AT37" s="38"/>
-      <c r="AU37" s="39"/>
-      <c r="AV37" s="39"/>
-      <c r="AW37" s="40"/>
+      <c r="AP37" s="64"/>
+      <c r="AQ37" s="65"/>
+      <c r="AR37" s="65"/>
+      <c r="AS37" s="66"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="65"/>
+      <c r="AV37" s="65"/>
+      <c r="AW37" s="66"/>
       <c r="AZ37" s="7"/>
     </row>
     <row r="38" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2726,23 +4286,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="Q24:W24"/>
-    <mergeCell ref="X24:AJ24"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="X25:AJ25"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="X26:AJ26"/>
-    <mergeCell ref="O7:AL16"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AJ22"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AJ23"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="AP33:AS33"/>
-    <mergeCell ref="AT33:AW33"/>
-    <mergeCell ref="AP32:AW32"/>
+    <mergeCell ref="D36:G37"/>
+    <mergeCell ref="H36:K37"/>
+    <mergeCell ref="AP36:AS36"/>
+    <mergeCell ref="AT36:AW36"/>
+    <mergeCell ref="AP37:AS37"/>
+    <mergeCell ref="AT37:AW37"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="AP34:AS34"/>
@@ -2751,12 +4300,23 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="AP35:AS35"/>
     <mergeCell ref="AT35:AW35"/>
-    <mergeCell ref="D36:G37"/>
-    <mergeCell ref="H36:K37"/>
-    <mergeCell ref="AP36:AS36"/>
-    <mergeCell ref="AT36:AW36"/>
-    <mergeCell ref="AP37:AS37"/>
-    <mergeCell ref="AT37:AW37"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="AP33:AS33"/>
+    <mergeCell ref="AT33:AW33"/>
+    <mergeCell ref="AP32:AW32"/>
+    <mergeCell ref="O7:AL16"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AJ22"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AJ23"/>
+    <mergeCell ref="Q24:W24"/>
+    <mergeCell ref="X24:AJ24"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="X25:AJ25"/>
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="X26:AJ26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -2769,16 +4329,1262 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DFE8A7-C557-4F4C-93D7-1747A2F2D53E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L26:L27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="67"/>
+      <c r="B12" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="67"/>
+      <c r="B32" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="67"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="67"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="67"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="67"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="67"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="67"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="67"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="67"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="67"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="67"/>
+      <c r="B52" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="67"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="67"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="67"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="67"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="67"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="67"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="67"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="67"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="67"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="67"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="67"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="67"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="67"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="67"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="67"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="67"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="67"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="67"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="67"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="67"/>
+      <c r="B72" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="67"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="67"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="67"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCEA314-34D5-4986-9293-A89256EBED7F}">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="67"/>
+      <c r="B12" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3109CC90-2B98-4997-902B-5D8CAE62C268}">
+  <dimension ref="A2:E52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA66DBC0-5DFF-44FD-8911-79CACB84F197}">
+  <dimension ref="A2:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBA717B-0968-408D-88DB-4BEB389283FA}">
+  <dimension ref="A2:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2792,17 +5598,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ea8a866f-3aa3-4656-8484-346a97fc6dc5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c0c61cca-e1ee-4647-9a1f-1577e827af96" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004154E75E3CDB2045AD61A20B1E077791" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e36dbe8ec88194bce0346c34123295d8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ea8a866f-3aa3-4656-8484-346a97fc6dc5" xmlns:ns3="c0c61cca-e1ee-4647-9a1f-1577e827af96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a59713c85cdcfec10a58363bf61d3c7" ns2:_="" ns3:_="">
     <xsd:import namespace="ea8a866f-3aa3-4656-8484-346a97fc6dc5"/>
@@ -3031,6 +5826,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ea8a866f-3aa3-4656-8484-346a97fc6dc5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c0c61cca-e1ee-4647-9a1f-1577e827af96" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35BF8650-A856-427E-8C6A-32E1342F6D91}">
   <ds:schemaRefs>
@@ -3040,17 +5846,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FE227BA-9771-461E-A3B5-0C8CD19DAA86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ea8a866f-3aa3-4656-8484-346a97fc6dc5"/>
-    <ds:schemaRef ds:uri="c0c61cca-e1ee-4647-9a1f-1577e827af96"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70EFC1C-3072-4B05-9C7A-798D094B1519}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3067,4 +5862,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FE227BA-9771-461E-A3B5-0C8CD19DAA86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ea8a866f-3aa3-4656-8484-346a97fc6dc5"/>
+    <ds:schemaRef ds:uri="c0c61cca-e1ee-4647-9a1f-1577e827af96"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>